--- a/Test Design Specifications/Search_Nanny_Test_Design_Specification.xlsx
+++ b/Test Design Specifications/Search_Nanny_Test_Design_Specification.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\GrannyNanny\Test Design Specifications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Li\Programs\Xampp\htdocs\GrannyNanny\Test Design Specifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -322,16 +322,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -340,6 +330,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,25 +623,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="52.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" customWidth="1"/>
+    <col min="6" max="6" width="33.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="34.28515625" customWidth="1"/>
     <col min="10" max="10" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,14 +660,14 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="17"/>
+      <c r="J1" s="20"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -684,11 +684,11 @@
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
     </row>
-    <row r="2" spans="1:25" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -713,7 +713,7 @@
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
     </row>
-    <row r="3" spans="1:25" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -748,11 +748,11 @@
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
     </row>
-    <row r="4" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
         <v>14</v>
@@ -761,7 +761,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="22"/>
+      <c r="G4" s="18"/>
       <c r="H4" s="5"/>
       <c r="I4" s="7"/>
       <c r="J4" s="6"/>
@@ -781,7 +781,7 @@
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
     </row>
-    <row r="5" spans="1:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -796,7 +796,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="20"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="5"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -816,7 +816,7 @@
       <c r="X5" s="6"/>
       <c r="Y5" s="6"/>
     </row>
-    <row r="6" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -831,7 +831,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="20"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="5"/>
       <c r="I6" s="7"/>
       <c r="J6" s="6"/>
@@ -851,11 +851,11 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
     </row>
-    <row r="7" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="5"/>
@@ -866,7 +866,7 @@
         <v>23</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="21"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="5"/>
       <c r="I7" s="7"/>
       <c r="J7" s="6"/>
@@ -886,7 +886,7 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
     </row>
-    <row r="8" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
@@ -901,7 +901,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="20"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -921,7 +921,7 @@
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
     </row>
-    <row r="9" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
@@ -936,7 +936,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="21"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -956,7 +956,7 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
     </row>
-    <row r="10" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
@@ -971,7 +971,7 @@
         <v>32</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="20"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -991,7 +991,7 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
     </row>
-    <row r="11" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>35</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="20"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="5"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -1026,7 +1026,7 @@
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
     </row>
-    <row r="12" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>38</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="20"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="5"/>
       <c r="I12" s="7"/>
       <c r="J12" s="6"/>
@@ -1061,7 +1061,7 @@
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
     </row>
-    <row r="13" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>41</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="20"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="5"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -1096,7 +1096,7 @@
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
     </row>
-    <row r="14" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>44</v>
       </c>
       <c r="F14" s="5"/>
-      <c r="G14" s="21"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="5"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1131,7 +1131,7 @@
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
     </row>
-    <row r="15" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>45</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>47</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="20"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="5"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1166,7 +1166,7 @@
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
     </row>
-    <row r="16" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>48</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="21"/>
+      <c r="G16" s="17"/>
       <c r="H16" s="5"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1201,7 +1201,7 @@
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
     </row>
-    <row r="17" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>51</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>53</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="21"/>
+      <c r="G17" s="17"/>
       <c r="H17" s="5"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1236,11 +1236,11 @@
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
     </row>
-    <row r="18" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="17"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1265,7 +1265,7 @@
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
     </row>
-    <row r="19" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>55</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>58</v>
       </c>
       <c r="F19" s="5"/>
-      <c r="G19" s="21"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="5"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -1304,7 +1304,7 @@
       <c r="A20" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="17"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>

--- a/Test Design Specifications/Search_Nanny_Test_Design_Specification.xlsx
+++ b/Test Design Specifications/Search_Nanny_Test_Design_Specification.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Li\Programs\Xampp\htdocs\GrannyNanny\Test Design Specifications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GrannyNanny\Test Design Specifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
   <si>
     <t xml:space="preserve"> Test Design Specification Identifier</t>
   </si>
@@ -197,6 +197,54 @@
   <si>
     <t xml:space="preserve">The UI  follow the same design as all other pages </t>
   </si>
+  <si>
+    <t>No Results found</t>
+  </si>
+  <si>
+    <t>Check if no results found message is displayed with search which doesn’t find anything</t>
+  </si>
+  <si>
+    <t>Search with no filters</t>
+  </si>
+  <si>
+    <t>Check if all results are displayed with empty search</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Няма намерени резултати, моля опитайте отново message appears</t>
+  </si>
+  <si>
+    <t>All the nannies from the DB are displayed as a result</t>
+  </si>
+  <si>
+    <t>Search with non existing and existing criteria</t>
+  </si>
+  <si>
+    <t>Check if something is shown as a result when searching with existing and non existing criteria</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>NR_1</t>
+  </si>
+  <si>
+    <t>SF_1</t>
+  </si>
+  <si>
+    <t>SE_1</t>
+  </si>
+  <si>
+    <t>Search with special symbols</t>
+  </si>
+  <si>
+    <t>SS_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Няма намерени резултати, моля опитайте отново message appears or result containing the searched symbols</t>
+  </si>
+  <si>
+    <t>Try searching with special symbols for example : ". , ' " / ? &lt; &gt; ' } { [ ] ! @ # $ % ^ _ ... "</t>
+  </si>
 </sst>
 </file>
 
@@ -275,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -329,6 +377,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -623,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -660,14 +717,14 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="22" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="20"/>
+      <c r="J1" s="23"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -685,10 +742,10 @@
       <c r="Y1" s="4"/>
     </row>
     <row r="2" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -749,10 +806,10 @@
       <c r="Y3" s="6"/>
     </row>
     <row r="4" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
         <v>14</v>
@@ -1237,10 +1294,10 @@
       <c r="Y17" s="6"/>
     </row>
     <row r="18" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="20"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1301,10 +1358,10 @@
       <c r="Y19" s="6"/>
     </row>
     <row r="20" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
-        <v>14</v>
+      <c r="A20" s="22" t="s">
+        <v>59</v>
       </c>
-      <c r="B20" s="20"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1331,12 +1388,18 @@
     </row>
     <row r="21" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="D21" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -1359,11 +1422,10 @@
       <c r="Y21" s="6"/>
     </row>
     <row r="22" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -1386,11 +1448,19 @@
       <c r="Y22" s="6"/>
     </row>
     <row r="23" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="D23" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -1412,12 +1482,10 @@
       <c r="X23" s="6"/>
       <c r="Y23" s="6"/>
     </row>
-    <row r="24" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+    <row r="24" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -1440,11 +1508,19 @@
       <c r="Y24" s="6"/>
     </row>
     <row r="25" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -1467,7 +1543,9 @@
       <c r="Y25" s="6"/>
     </row>
     <row r="26" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
+      <c r="A26" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1493,12 +1571,20 @@
       <c r="X26" s="6"/>
       <c r="Y26" s="6"/>
     </row>
-    <row r="27" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+    <row r="27" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="D27" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>

--- a/Test Design Specifications/Search_Nanny_Test_Design_Specification.xlsx
+++ b/Test Design Specifications/Search_Nanny_Test_Design_Specification.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="User Registration" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="91">
   <si>
     <t xml:space="preserve"> Test Design Specification Identifier</t>
   </si>
@@ -72,16 +72,10 @@
     <t>Search  nanny by name</t>
   </si>
   <si>
-    <t>The page loads all nanies with the entered name and sort them alphabetical order</t>
-  </si>
-  <si>
     <t>SDR_2</t>
   </si>
   <si>
     <t>Search nanny by city</t>
-  </si>
-  <si>
-    <t>The page loads all nanies in the chosen city and sort them in alphabetical order</t>
   </si>
   <si>
     <t>SDR_3</t>
@@ -90,16 +84,10 @@
     <t>Search nanny by gender</t>
   </si>
   <si>
-    <t>The page loads all nanies with the chosen gender and sort them  in alphabetical order</t>
-  </si>
-  <si>
     <t>SDR_4</t>
   </si>
   <si>
     <t>Search nanny by age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The page loads all nanies with  the entered </t>
   </si>
   <si>
     <t>SDR_5</t>
@@ -108,16 +96,10 @@
     <t>Search by age and gender</t>
   </si>
   <si>
-    <t>The page loads all nanies with  chosen age range and chosen gender  and sort them in alphabetical order</t>
-  </si>
-  <si>
     <t>SDR_6</t>
   </si>
   <si>
     <t>search by age and name</t>
-  </si>
-  <si>
-    <t>The page loades all nanies with chosen name and age and sort them in alphabetical order</t>
   </si>
   <si>
     <t>SDR_7</t>
@@ -126,16 +108,10 @@
     <t>search by age and city</t>
   </si>
   <si>
-    <t>The page loades all nanies with chosen age range and chosen city and sort them in alphabetical order</t>
-  </si>
-  <si>
     <t>SDR_8</t>
   </si>
   <si>
     <t>search by name and city</t>
-  </si>
-  <si>
-    <t>The page loades all nanies with chosen name and chosen city and sort them in alphabetical order</t>
   </si>
   <si>
     <t>SDR_9</t>
@@ -144,16 +120,10 @@
     <t>search by name and age</t>
   </si>
   <si>
-    <t xml:space="preserve">The page load all nanies with chosen name and age range and sort them in alphabetical order </t>
-  </si>
-  <si>
     <t>SDR_10</t>
   </si>
   <si>
     <t>Search by name age and gender</t>
-  </si>
-  <si>
-    <t>the page loades all nanies wirh  chosen age and  chosen gednder and chosen chosen name and sort them in alphabetical order</t>
   </si>
   <si>
     <t>SDR_11</t>
@@ -162,25 +132,16 @@
     <t>Search by name age and city</t>
   </si>
   <si>
-    <t>The page loades all nanies  with chosen name and chosen age and chosen city and sort them in alphabetical order</t>
-  </si>
-  <si>
     <t>SDR_12</t>
   </si>
   <si>
     <t>Search by age city and gender</t>
   </si>
   <si>
-    <t>The page loads  all nanies with chosen age  and chosen city and chosen gender and sort them in alphabetical order</t>
-  </si>
-  <si>
     <t>SDR_13</t>
   </si>
   <si>
     <t>search by name age gender and city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The page loades all nanies with chosen name  chosen age range chosen gender and chosen city  and order them in alphabetical orde </t>
   </si>
   <si>
     <t>UI</t>
@@ -245,12 +206,99 @@
   <si>
     <t>Try searching with special symbols for example : ". , ' " / ? &lt; &gt; ' } { [ ] ! @ # $ % ^ _ ... "</t>
   </si>
+  <si>
+    <t xml:space="preserve">The page load all nanies with chosen name and gender range </t>
+  </si>
+  <si>
+    <t>The page load all nanies with chosen name and age range</t>
+  </si>
+  <si>
+    <t>The page loads all nanies with the chosen gender</t>
+  </si>
+  <si>
+    <t>The page loads all nanies in the chosen city</t>
+  </si>
+  <si>
+    <t>The page loads all nanies with the entered name</t>
+  </si>
+  <si>
+    <t>Search by city and gender</t>
+  </si>
+  <si>
+    <t>Search by name and gender</t>
+  </si>
+  <si>
+    <t>Search by name city and gender</t>
+  </si>
+  <si>
+    <t>The page loads all nanies with  the entered age</t>
+  </si>
+  <si>
+    <t>The page loads all nanies with  chosen age and chosen gender</t>
+  </si>
+  <si>
+    <t>The page loads all nanies with chosen age range and chosen city</t>
+  </si>
+  <si>
+    <t>The page loads all nanies with chosen name and age range</t>
+  </si>
+  <si>
+    <t>The page loades all nanies with chosen name and city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The page load all nanies with chosen city and gender </t>
+  </si>
+  <si>
+    <t>the page loads all nanies with chosen name city and gender</t>
+  </si>
+  <si>
+    <t>the page loads all nanies with chosen age range gender and name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The page loads all nanies  with chosen name age range and chosen city </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The page loads  all nanies with chosen age range city and  gender </t>
+  </si>
+  <si>
+    <t>The page loads all nanies with chosen name age range gender and chosen city</t>
+  </si>
+  <si>
+    <t>SDR_14</t>
+  </si>
+  <si>
+    <t>SDR_15</t>
+  </si>
+  <si>
+    <t>SDR_16</t>
+  </si>
+  <si>
+    <t>Book and Edit buttons based on user status</t>
+  </si>
+  <si>
+    <t>BE_1</t>
+  </si>
+  <si>
+    <t>Check if book button is under the results if you are logged in with regular user</t>
+  </si>
+  <si>
+    <t>Book button is bellow every nanny profile result</t>
+  </si>
+  <si>
+    <t>BE_2</t>
+  </si>
+  <si>
+    <t>Check if edit button is under the results if you are logged in with administrator</t>
+  </si>
+  <si>
+    <t>Edit button is bellow every nanny profile result</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -290,6 +338,19 @@
       <sz val="11"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -306,7 +367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -373,9 +434,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -392,11 +450,30 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y1009"/>
+  <dimension ref="A1:Y1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -717,14 +794,14 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="25" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="23"/>
+      <c r="J1" s="28"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -742,10 +819,10 @@
       <c r="Y1" s="4"/>
     </row>
     <row r="2" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -806,10 +883,10 @@
       <c r="Y3" s="6"/>
     </row>
     <row r="4" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
         <v>14</v>
@@ -818,7 +895,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="18"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="5"/>
       <c r="I4" s="7"/>
       <c r="J4" s="6"/>
@@ -850,7 +927,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="16"/>
@@ -875,20 +952,20 @@
     </row>
     <row r="6" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="16"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="5"/>
       <c r="I6" s="7"/>
       <c r="J6" s="6"/>
@@ -910,20 +987,20 @@
     </row>
     <row r="7" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>22</v>
+      <c r="B7" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="17"/>
+      <c r="G7" s="30"/>
       <c r="H7" s="5"/>
       <c r="I7" s="7"/>
       <c r="J7" s="6"/>
@@ -945,20 +1022,20 @@
     </row>
     <row r="8" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="16"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -980,20 +1057,20 @@
     </row>
     <row r="9" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="17"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -1015,20 +1092,20 @@
     </row>
     <row r="10" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="16"/>
+      <c r="G10" s="31"/>
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -1050,20 +1127,20 @@
     </row>
     <row r="11" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="16"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="5"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -1085,20 +1162,20 @@
     </row>
     <row r="12" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="16"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="5"/>
       <c r="I12" s="7"/>
       <c r="J12" s="6"/>
@@ -1120,20 +1197,20 @@
     </row>
     <row r="13" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="16"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="5"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -1153,127 +1230,127 @@
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
     </row>
-    <row r="14" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>42</v>
+    <row r="14" spans="1:25" s="22" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>33</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>43</v>
+      <c r="B14" s="21" t="s">
+        <v>68</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>44</v>
+      <c r="E14" s="21" t="s">
+        <v>62</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="5"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-    </row>
-    <row r="15" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>45</v>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+    </row>
+    <row r="15" spans="1:25" s="22" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>35</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>46</v>
+      <c r="B15" s="21" t="s">
+        <v>67</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>47</v>
+      <c r="E15" s="21" t="s">
+        <v>75</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="5"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="21"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-    </row>
-    <row r="16" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>48</v>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+    </row>
+    <row r="16" spans="1:25" s="22" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>37</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>49</v>
+      <c r="B16" s="21" t="s">
+        <v>69</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>50</v>
+      <c r="E16" s="21" t="s">
+        <v>76</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="5"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="21"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
     </row>
     <row r="17" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="17"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="5"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1294,15 +1371,21 @@
       <c r="Y17" s="6"/>
     </row>
     <row r="18" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
-        <v>54</v>
+      <c r="A18" s="5" t="s">
+        <v>81</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="5"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1324,23 +1407,23 @@
     </row>
     <row r="19" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="F19" s="5"/>
-      <c r="G19" s="17"/>
+      <c r="G19" s="31"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
@@ -1357,19 +1440,25 @@
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
     </row>
-    <row r="20" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
-        <v>59</v>
+    <row r="20" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>83</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
@@ -1386,25 +1475,19 @@
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
     </row>
-    <row r="21" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>68</v>
+    <row r="21" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="26" t="s">
+        <v>41</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="B21" s="26"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>63</v>
-      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
@@ -1421,13 +1504,22 @@
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
     </row>
-    <row r="22" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>61</v>
+        <v>42</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="5"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -1448,19 +1540,13 @@
       <c r="Y22" s="6"/>
     </row>
     <row r="23" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>69</v>
+      <c r="A23" s="26" t="s">
+        <v>46</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="B23" s="26"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>64</v>
-      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -1482,9 +1568,19 @@
       <c r="X23" s="6"/>
       <c r="Y23" s="6"/>
     </row>
-    <row r="24" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>65</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -1509,22 +1605,13 @@
     </row>
     <row r="25" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>63</v>
-      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="7"/>
+      <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
@@ -1542,14 +1629,20 @@
       <c r="X25" s="6"/>
       <c r="Y25" s="6"/>
     </row>
-    <row r="26" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
-      <c r="B26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="D26" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -1572,22 +1665,12 @@
       <c r="Y26" s="6"/>
     </row>
     <row r="27" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
-        <v>72</v>
+      <c r="A27" s="5" t="s">
+        <v>52</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
@@ -1606,16 +1689,24 @@
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
     </row>
-    <row r="28" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="6"/>
+    <row r="28" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="7"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
@@ -1633,93 +1724,113 @@
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
     </row>
-    <row r="29" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-    </row>
-    <row r="30" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="15"/>
+    <row r="29" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+    </row>
+    <row r="30" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="11"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
-    </row>
-    <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+    </row>
+    <row r="31" spans="1:25" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="15"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-    </row>
-    <row r="32" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+    </row>
+    <row r="32" spans="1:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>87</v>
+      </c>
       <c r="F32" s="15"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
@@ -1741,12 +1852,20 @@
       <c r="X32" s="13"/>
       <c r="Y32" s="13"/>
     </row>
-    <row r="33" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+    <row r="33" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>90</v>
+      </c>
       <c r="F33" s="15"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
@@ -28120,15 +28239,97 @@
       <c r="X1009" s="13"/>
       <c r="Y1009" s="13"/>
     </row>
+    <row r="1010" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1010" s="13"/>
+      <c r="B1010" s="13"/>
+      <c r="C1010" s="14"/>
+      <c r="D1010" s="6"/>
+      <c r="E1010" s="6"/>
+      <c r="F1010" s="15"/>
+      <c r="G1010" s="12"/>
+      <c r="H1010" s="12"/>
+      <c r="I1010" s="13"/>
+      <c r="J1010" s="13"/>
+      <c r="K1010" s="13"/>
+      <c r="L1010" s="13"/>
+      <c r="M1010" s="13"/>
+      <c r="N1010" s="13"/>
+      <c r="O1010" s="13"/>
+      <c r="P1010" s="13"/>
+      <c r="Q1010" s="13"/>
+      <c r="R1010" s="13"/>
+      <c r="S1010" s="13"/>
+      <c r="T1010" s="13"/>
+      <c r="U1010" s="13"/>
+      <c r="V1010" s="13"/>
+      <c r="W1010" s="13"/>
+      <c r="X1010" s="13"/>
+      <c r="Y1010" s="13"/>
+    </row>
+    <row r="1011" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1011" s="13"/>
+      <c r="B1011" s="13"/>
+      <c r="C1011" s="14"/>
+      <c r="D1011" s="6"/>
+      <c r="E1011" s="6"/>
+      <c r="F1011" s="15"/>
+      <c r="G1011" s="12"/>
+      <c r="H1011" s="12"/>
+      <c r="I1011" s="13"/>
+      <c r="J1011" s="13"/>
+      <c r="K1011" s="13"/>
+      <c r="L1011" s="13"/>
+      <c r="M1011" s="13"/>
+      <c r="N1011" s="13"/>
+      <c r="O1011" s="13"/>
+      <c r="P1011" s="13"/>
+      <c r="Q1011" s="13"/>
+      <c r="R1011" s="13"/>
+      <c r="S1011" s="13"/>
+      <c r="T1011" s="13"/>
+      <c r="U1011" s="13"/>
+      <c r="V1011" s="13"/>
+      <c r="W1011" s="13"/>
+      <c r="X1011" s="13"/>
+      <c r="Y1011" s="13"/>
+    </row>
+    <row r="1012" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1012" s="13"/>
+      <c r="B1012" s="13"/>
+      <c r="C1012" s="14"/>
+      <c r="D1012" s="6"/>
+      <c r="E1012" s="6"/>
+      <c r="F1012" s="15"/>
+      <c r="G1012" s="12"/>
+      <c r="H1012" s="12"/>
+      <c r="I1012" s="13"/>
+      <c r="J1012" s="13"/>
+      <c r="K1012" s="13"/>
+      <c r="L1012" s="13"/>
+      <c r="M1012" s="13"/>
+      <c r="N1012" s="13"/>
+      <c r="O1012" s="13"/>
+      <c r="P1012" s="13"/>
+      <c r="Q1012" s="13"/>
+      <c r="R1012" s="13"/>
+      <c r="S1012" s="13"/>
+      <c r="T1012" s="13"/>
+      <c r="U1012" s="13"/>
+      <c r="V1012" s="13"/>
+      <c r="W1012" s="13"/>
+      <c r="X1012" s="13"/>
+      <c r="Y1012" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>